--- a/tables/2.Documentación/Documentación.xlsx
+++ b/tables/2.Documentación/Documentación.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/2.Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C622C27-CAB3-4361-9051-3041CA9CC674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6C622C27-CAB3-4361-9051-3041CA9CC674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7412DB1-96EA-4CE6-A9D8-D8DC2187D8DD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{62AF147F-6A76-4D42-BF9F-266A587DD6DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{62AF147F-6A76-4D42-BF9F-266A587DD6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="pedido20" sheetId="1" r:id="rId1"/>
     <sheet name="pedido21" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -193,33 +195,38 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,11 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,74 +561,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>24.205926695548701</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>63.673230629515608</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>77.831634149638802</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>97.126823769460771</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>93.214923045842141</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>96.808868873100124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>99.174290878609611</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>94.584643242058547</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>97.181158073308254</v>
       </c>
     </row>
@@ -674,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C459F1EE-5C6B-4D1E-81A0-EF10392D1C50}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -685,270 +687,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>56.741794411746994</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>93.198606697758038</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>96.564875976249411</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>83.044137333270612</v>
       </c>
-      <c r="C6" s="8">
-        <v>100</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5">
         <v>99.633374949868823</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>81.597503637238418</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>98.423370382594669</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>99.972101996630386</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>75.383687882286964</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>99.999999999999972</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>99.404692671400184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>52.832906302469439</v>
       </c>
-      <c r="C9" s="8">
-        <v>100</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5">
         <v>95.732893228473429</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>94.53842281759168</v>
       </c>
-      <c r="C10" s="8">
-        <v>100</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>39.450141549408485</v>
       </c>
-      <c r="C11" s="8">
-        <v>100</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>82.986107619182178</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>96.333478594759995</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>97.817263535617286</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>6.0056764857579168</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>90.901883898795049</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>60.648245116463919</v>
       </c>
-      <c r="C14" s="8">
-        <v>100</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5">
         <v>87.991321599494867</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>51.57428902464418</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>85.963134523562843</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>96.3142049546381</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>71.016899574278199</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>94.745126301817635</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>95.944385307051675</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>79.367394008668285</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>93.424882570710039</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>97.793715792664315</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>67.635255860506874</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>91.024127100811697</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>53.469950827942981</v>
       </c>
-      <c r="C19" s="8">
-        <v>100</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="5">
+        <v>100</v>
+      </c>
+      <c r="D19" s="5">
         <v>75.124475692147072</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>71.155212230161979</v>
       </c>
-      <c r="C20" s="8">
-        <v>100</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5">
         <v>98.546167324939375</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>82.818335337299942</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>99.323051936096263</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>97.766171931105973</v>
       </c>
     </row>
@@ -960,4 +962,28 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E845E5-D26D-412F-B89F-EE8B22EED7DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA508974-F51E-4060-A3F8-CF38AED48620}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>